--- a/XLSX transformados/AL_J3_jugadores.xlsx
+++ b/XLSX transformados/AL_J3_jugadores.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>errorLeadToAShot</t>
+          <t>Errores que Conducen a un Tiro</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">

--- a/XLSX transformados/AL_J3_jugadores.xlsx
+++ b/XLSX transformados/AL_J3_jugadores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +639,16 @@
           <t>Capitan</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Goles</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Asistencias de Gol</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -771,10 +781,12 @@
       <c r="AN2" t="n">
         <v>0</v>
       </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -908,10 +920,12 @@
       <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1045,10 +1059,12 @@
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1182,10 +1198,12 @@
       <c r="AN5" t="n">
         <v>0</v>
       </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1319,10 +1337,12 @@
       <c r="AN6" t="n">
         <v>0</v>
       </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1456,10 +1476,12 @@
       <c r="AN7" t="n">
         <v>0</v>
       </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1593,10 +1615,12 @@
       <c r="AN8" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1730,10 +1754,12 @@
       <c r="AN9" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1867,10 +1893,12 @@
       <c r="AN10" t="n">
         <v>0</v>
       </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2004,10 +2032,12 @@
       <c r="AN11" t="n">
         <v>1</v>
       </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2171,12 @@
       <c r="AN12" t="n">
         <v>1</v>
       </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Si</t>
-        </is>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2173,7 +2205,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -2278,10 +2310,12 @@
       <c r="AN13" t="n">
         <v>0</v>
       </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2310,7 +2344,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -2415,10 +2449,12 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2447,7 +2483,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -2552,10 +2588,12 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2584,7 +2622,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -2689,10 +2727,12 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2721,7 +2761,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -2826,10 +2866,12 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2858,7 +2900,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2963,10 +3005,12 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2995,7 +3039,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -3100,10 +3144,12 @@
       <c r="AN19" t="n">
         <v>0</v>
       </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3132,7 +3178,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -3237,10 +3283,12 @@
       <c r="AN20" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3269,7 +3317,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -3374,10 +3422,12 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
